--- a/biology/Neurosciences/Règle_de_Hebb/Règle_de_Hebb.xlsx
+++ b/biology/Neurosciences/Règle_de_Hebb/Règle_de_Hebb.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>R%C3%A8gle_de_Hebb</t>
+          <t>Règle_de_Hebb</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,14 +490,16 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La règle de Hebb, théorie de Hebb, postulat de Hebb ou théorie des assemblées de neurones a été établie par Donald Hebb en 1949. Elle est à la fois utilisée comme hypothèse en neurosciences et comme concept dans les réseaux neuronaux en mathématiques. 
-Cette théorie est souvent résumée par la formule : « des neurones qui s'excitent ensemble se lient entre eux. » (« cells that fire together, wire together »)[1]
+Cette théorie est souvent résumée par la formule : « des neurones qui s'excitent ensemble se lient entre eux. » (« cells that fire together, wire together »)
 C'est une règle algorithmique  d'apprentissage des réseaux de neurones artificiels dans le contexte de l'étude d'assemblées de neurones.
 Elle est basée sur une hypothèse scientifique en neurosciences. Elle décrit les changements d'adaptation neuronale dans le cerveau ou dans un réseau de neurones pendant un processus d'apprentissage. Elle décrit un mécanisme basique de plasticité synaptique dans laquelle l'efficacité synaptique augmente lors d'une stimulation présynaptique répétée et persistante de la cellule postsynaptique.
 « Faisons l'hypothèse qu'une activité persistante et répétée d'une activité avec réverbération (ou trace) tend à induire un changement cellulaire persistant qui augmente sa stabilité. Quand un axone d'une cellule A est assez proche pour exciter une cellule B de manière répétée et persistante, une croissance ou des changements métaboliques prennent place dans l'une ou les deux cellules ce qui entraîne une augmentation de l'efficacité de A comme cellule stimulant B. »
-— Donald Hebb, 1949[2].
+— Donald Hebb, 1949.
 Cette règle suggère que lorsque deux neurones sont excités conjointement, il se crée ou renforce un lien les unissant.
 Cette théorie tente d'expliquer l'apprentissage associatif, dans lequel une association est faite par la répétition de deux stimuli. La répétition d'un stimulus seul entraîne le rappel de l'autre stimulus ensuite (voir apprentissage pavlovien).
 </t>
@@ -500,7 +512,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>R%C3%A8gle_de_Hebb</t>
+          <t>Règle_de_Hebb</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -518,7 +530,9 @@
           <t>Engrammes d'Hebb et théorie des assemblées de neurones</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>La théorie d'Hebb s'intéresse à la manière dont les neurones se connectent entre eux pour former des engrammes.
 Gordon Allport propose des hypothèses complémentaires :
@@ -528,8 +542,8 @@
 Le travail du prix Nobel Eric Kandel a fourni une preuve de l'implication des mécanismes d'apprentissages de Hebb dans les synapses du gastéropode marin Aplysia californica.
 Mais il est plus difficile de vérifier ces théories sur les systèmes nerveux centraux des vertébrés, au cerveau plus complexe.
 Le phénomène de potentialisation à long terme, un équivalent biologique de la « synapse de Hebb », joue un grand rôle dans les théories neurobiologiques de la mémoire. L'algorithme de Hebb sert à expliquer comment les souvenirs sont stockés dans le cerveau (quand un événement est subi ou provoqué de manière répétée, les connexions entre les neurones qui représentent cet événement seront renforcées. Avec suffisamment de répétitions, ces connexions deviendront suffisamment fortes pour que le souvenir de l'événement puisse être rappelé). 
-Il a été proposé par Kannappan et al. (2011) pour expliquer certains phénomènes neuroatypiques observés dans l'autisme[3] : tout ou partie du cerveau de personnes autistes semblent présentent une plasticité synaptique excessive (certaines de leurs synapses semblent plus susceptibles de se renforcer, ce qui pourrait conduire à une hyperconnectivité cérébrale, un trait observé chez elles qui pourrait expliquer certaines caractéristiques de l'autisme (mémorisation exceptionnelle, mais aussi difficultés de communication et d'interaction sociale). Inversement, certains réseaux neuronaux ou certaines personnes autistes pourraient avoir une plasticité synaptique insuffisante (synapses moins susceptibles de se renforcer, conduisant à une hypoconnectivité cérébrale, observée chez certaines personnes autistes et qui pourrait expliquer des comportements atypiques (gestes ou activités répétitives et intérêts restreints). L'algorithme de Hebb stipule que la connexion entre les neurones qui représentent un stimulus sera renforcée. Cela peut conduire à ce que la personne autiste développe un intérêt intense pour ce stimulus. 
-Une équipe d'experts a publié[4] en 2011 un modèle prometteur de prédiction du trouble du spectre autistique (TSA) à l'aide d'une carte cognitive floue (FCM) et d'un algorithme d'apprentissage hebbien non linéaire[4]. Ce modèle FCM est dénommé C24 (car construit sur 24 concepts, représentant trois valeurs floues) ; il a été formé sur un ensemble de données de personnes diagnostiquées avec TSA. Selon les auteurs, il a pu prédire le TSA] avec un degré de précision élevé et « il pourrait donc être utilisé pour aider les médecins à identifier les patients qui sont plus susceptibles d'être atteints de TSA »[4]. De même, plus d'un demi-siècle après que l'algorithme de Hebb ait été proposé par Donald Hebb (en 1949 dans son livre The Organization of Behavior), les notions d'« algorithmes hebbiens » («Hebbian learning algorithm»[5],[6] et d'algorithme d'apprentissage hebbien non linéaire utilisant le principe de plasticité synaptique en modifiant les poids synaptiques et des relations entre neurones artificiels sont aussi utilisée dans les domaines de l'étude de l'apprentissage du langage et de l'intelligence artificielle. 
+Il a été proposé par Kannappan et al. (2011) pour expliquer certains phénomènes neuroatypiques observés dans l'autisme : tout ou partie du cerveau de personnes autistes semblent présentent une plasticité synaptique excessive (certaines de leurs synapses semblent plus susceptibles de se renforcer, ce qui pourrait conduire à une hyperconnectivité cérébrale, un trait observé chez elles qui pourrait expliquer certaines caractéristiques de l'autisme (mémorisation exceptionnelle, mais aussi difficultés de communication et d'interaction sociale). Inversement, certains réseaux neuronaux ou certaines personnes autistes pourraient avoir une plasticité synaptique insuffisante (synapses moins susceptibles de se renforcer, conduisant à une hypoconnectivité cérébrale, observée chez certaines personnes autistes et qui pourrait expliquer des comportements atypiques (gestes ou activités répétitives et intérêts restreints). L'algorithme de Hebb stipule que la connexion entre les neurones qui représentent un stimulus sera renforcée. Cela peut conduire à ce que la personne autiste développe un intérêt intense pour ce stimulus. 
+Une équipe d'experts a publié en 2011 un modèle prometteur de prédiction du trouble du spectre autistique (TSA) à l'aide d'une carte cognitive floue (FCM) et d'un algorithme d'apprentissage hebbien non linéaire. Ce modèle FCM est dénommé C24 (car construit sur 24 concepts, représentant trois valeurs floues) ; il a été formé sur un ensemble de données de personnes diagnostiquées avec TSA. Selon les auteurs, il a pu prédire le TSA] avec un degré de précision élevé et « il pourrait donc être utilisé pour aider les médecins à identifier les patients qui sont plus susceptibles d'être atteints de TSA ». De même, plus d'un demi-siècle après que l'algorithme de Hebb ait été proposé par Donald Hebb (en 1949 dans son livre The Organization of Behavior), les notions d'« algorithmes hebbiens » («Hebbian learning algorithm», et d'algorithme d'apprentissage hebbien non linéaire utilisant le principe de plasticité synaptique en modifiant les poids synaptiques et des relations entre neurones artificiels sont aussi utilisée dans les domaines de l'étude de l'apprentissage du langage et de l'intelligence artificielle. 
 Un article (2010, dans la revue Neurocomputing) a proposé, pour améliorer l'apprentissage automatique, un « algorithme de Hebb révisé », qui intègre une dimension temporelle dans l'activation neuronale (en stipulant que la force d'une synapse est renforcée si les deux neurones qui la connectent sont activés dans un certain intervalle de temps). Les auteurs y montrent que cet algorithme révisé (par rapport à l'algorithme de Hebb original) se montre plus efficace que  pour apprendre des séquences de données et plus robuste face aux perturbations des données.
 L'algorithme de Hebb révisé est présenté comme suit :
 Soient x(t) et y(t) les activités des neurones présynaptique et postsynaptique à l'instant t. L'algorithme de Hebb révisé définit la nouvelle valeur du poids synaptique w(t + 1) à l'instant t + 1 comme suit :
